--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="188">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -415,7 +415,7 @@
     <t xml:space="preserve">kan</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಹೊಸ ವರುಷದ ದಿನ</t>
+    <t xml:space="preserve">ಹೊಸ ವರುಷದ ದಿನ</t>
   </si>
   <si>
     <t xml:space="preserve">ರಾಷ್ಟ್ರೀಯ ರಜೆ</t>
@@ -424,13 +424,13 @@
     <t xml:space="preserve">ಸ್ವಾತಂತ್ರ್ಯ ಘೋಷಣೆಯ ವಾರ್ಷಿಕೋತ್ಸವ</t>
   </si>
   <si>
-    <t xml:space="preserve">  ಶನಿವಾರ – ವಾರಾಂತ್ಯ</t>
+    <t xml:space="preserve">ಶನಿವಾರ – ವಾರಾಂತ್ಯ</t>
   </si>
   <si>
     <t xml:space="preserve">ವಾರಾಂತ್ಯ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಭಾನುವಾರ – ವಾರಾಂತ್ಯ</t>
+    <t xml:space="preserve">ಭಾನುವಾರ – ವಾರಾಂತ್ಯ</t>
   </si>
   <si>
     <t xml:space="preserve">ಭಾನುವಾರ - ವಾರಾಂತ್ಯ</t>
@@ -439,22 +439,22 @@
     <t xml:space="preserve">ಪ್ರವಾದಿ ಮುಹಮ್ಮದ್ ಅವರ ಜನ್ಮದಿನ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಸ್ವಾತಂತ್ರ್ಯ ದಿನಾಚರಣೆ</t>
+    <t xml:space="preserve">ಸ್ವಾತಂತ್ರ್ಯ ದಿನಾಚರಣೆ</t>
   </si>
   <si>
     <t xml:space="preserve">ಹಸಿರು ಮೆರವಣಿಗೆಯ ವಾರ್ಷಿಕೋತ್ಸವ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಕಾರ್ಮಿಕ ದಿನ/ಮೇ ದಿನ</t>
+    <t xml:space="preserve">ಕಾರ್ಮಿಕ ದಿನ/ಮೇ ದಿನ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಈದ್ ಅಲ್-ಫಿತರ್</t>
+    <t xml:space="preserve">ಈದ್ ಅಲ್-ಫಿತರ್</t>
   </si>
   <si>
     <t xml:space="preserve"> ಸಿಂಹಾಸನದ ಹಬ್ಬ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಈದ್ ಅಲ್-ಅಧಾ</t>
+    <t xml:space="preserve">ಈದ್ ಅಲ್-ಅಧಾ</t>
   </si>
   <si>
     <t xml:space="preserve">ರಿಕವರಿ ಓವ್ಡ್ ಎಡ್-ದಹಾಬ್ ವಾರ್ಷಿಕೋತ್ಸವ</t>
@@ -463,28 +463,25 @@
     <t xml:space="preserve">ರಾಜ ಮತ್ತು ಜನರ ಕ್ರಾಂತಿಯ ವಾರ್ಷಿಕೋತ್ಸವ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಯುವ ದಿನ</t>
+    <t xml:space="preserve">ಯುವ ದಿನ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಹಿಜ್ರಾ ಹೊಸ ವರ್ಷ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ವಾರಾಂತ್ಯ</t>
+    <t xml:space="preserve">ಹಿಜ್ರಾ ಹೊಸ ವರ್ಷ</t>
   </si>
   <si>
     <t xml:space="preserve">hin</t>
   </si>
   <si>
-    <t xml:space="preserve"> नए साल का दिन</t>
+    <t xml:space="preserve">नए साल का दिन</t>
   </si>
   <si>
     <t xml:space="preserve">राष्ट्रीय छुट्टी</t>
   </si>
   <si>
-    <t xml:space="preserve"> स्वतंत्रता घोषणापत्र की वर्षगांठ</t>
+    <t xml:space="preserve">स्वतंत्रता घोषणापत्र की वर्षगांठ</t>
   </si>
   <si>
-    <t xml:space="preserve"> शनिवार – सप्ताहांत</t>
+    <t xml:space="preserve">शनिवार – सप्ताहांत</t>
   </si>
   <si>
     <t xml:space="preserve">सप्ताह के अंत</t>
@@ -496,25 +493,25 @@
     <t xml:space="preserve">शनिवार - सप्ताहांत</t>
   </si>
   <si>
-    <t xml:space="preserve"> पैगंबर मुहम्मद का जन्मदिन</t>
+    <t xml:space="preserve">पैगंबर मुहम्मद का जन्मदिन</t>
   </si>
   <si>
     <t xml:space="preserve">स्वतंत्रता दिवस</t>
   </si>
   <si>
-    <t xml:space="preserve"> हरित मार्च की वर्षगांठ</t>
+    <t xml:space="preserve">हरित मार्च की वर्षगांठ</t>
   </si>
   <si>
-    <t xml:space="preserve"> मजदूर दिवस/मई दिवस</t>
+    <t xml:space="preserve">मजदूर दिवस/मई दिवस</t>
   </si>
   <si>
-    <t xml:space="preserve"> ईद - उल – फितर</t>
+    <t xml:space="preserve">ईद - उल – फितर</t>
   </si>
   <si>
-    <t xml:space="preserve"> सिंहासन का पर्व</t>
+    <t xml:space="preserve">सिंहासन का पर्व</t>
   </si>
   <si>
-    <t xml:space="preserve"> ईद अल – अज़्हा</t>
+    <t xml:space="preserve">ईद अल – अज़्हा</t>
   </si>
   <si>
     <t xml:space="preserve">रिकवरी ओएड एड-दहाब की वर्षगांठ</t>
@@ -523,22 +520,22 @@
     <t xml:space="preserve">राजा और प्रजा की क्रांति की वर्षगांठ</t>
   </si>
   <si>
-    <t xml:space="preserve"> युवा दिवस</t>
+    <t xml:space="preserve">युवा दिवस</t>
   </si>
   <si>
-    <t xml:space="preserve"> हिजड़ा नया साल</t>
+    <t xml:space="preserve">हिजड़ा नया साल</t>
   </si>
   <si>
     <t xml:space="preserve"> सप्ताह के अंत</t>
   </si>
   <si>
-    <t xml:space="preserve"> रविवार – सप्ताहांत</t>
+    <t xml:space="preserve">रविवार – सप्ताहांत</t>
   </si>
   <si>
     <t xml:space="preserve">tam</t>
   </si>
   <si>
-    <t xml:space="preserve"> புத்தாண்டு தினம்</t>
+    <t xml:space="preserve">புத்தாண்டு தினம்</t>
   </si>
   <si>
     <t xml:space="preserve">தேசிய விடுமுறை</t>
@@ -559,7 +556,7 @@
     <t xml:space="preserve">முஹம்மது நபியின் பிறந்தநாள்</t>
   </si>
   <si>
-    <t xml:space="preserve"> சுதந்திர தினம்</t>
+    <t xml:space="preserve">சுதந்திர தினம்</t>
   </si>
   <si>
     <t xml:space="preserve">பசுமை அணிவகுப்பின் ஆண்டுவிழா</t>
@@ -568,13 +565,13 @@
     <t xml:space="preserve">தொழிலாளர் தினம்/மே தினம்</t>
   </si>
   <si>
-    <t xml:space="preserve"> ஈதுல் பித்ர்</t>
+    <t xml:space="preserve">ஈதுல் பித்ர்</t>
   </si>
   <si>
-    <t xml:space="preserve"> சிம்மாசன விருந்து</t>
+    <t xml:space="preserve">சிம்மாசன விருந்து</t>
   </si>
   <si>
-    <t xml:space="preserve"> ஈத் அல்-அதா</t>
+    <t xml:space="preserve">ஈத் அல்-அதா</t>
   </si>
   <si>
     <t xml:space="preserve">Oued Ed-Dahab மீட்பு ஆண்டுவிழா</t>
@@ -583,10 +580,10 @@
     <t xml:space="preserve">ராஜா மற்றும் மக்களின் புரட்சியின் ஆண்டுவிழா</t>
   </si>
   <si>
-    <t xml:space="preserve"> இளைஞர் தினம்</t>
+    <t xml:space="preserve">இளைஞர் தினம்</t>
   </si>
   <si>
-    <t xml:space="preserve"> ஹிஜ்ரா புத்தாண்டு</t>
+    <t xml:space="preserve">ஹிஜ்ரா புத்தாண்டு</t>
   </si>
   <si>
     <t xml:space="preserve">ஞாயிறு - வார இறுதி </t>
@@ -693,8 +690,8 @@
   </sheetPr>
   <dimension ref="A1:G796"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A784" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D797" activeCellId="0" sqref="D797"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A391" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E402" activeCellId="0" sqref="E402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12989,7 +12986,7 @@
         <v>133</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G515" s="0" t="s">
         <v>12</v>
@@ -13012,7 +13009,7 @@
         <v>133</v>
       </c>
       <c r="F516" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G516" s="0" t="s">
         <v>12</v>
@@ -13035,7 +13032,7 @@
         <v>136</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G517" s="0" t="s">
         <v>12</v>
@@ -13058,7 +13055,7 @@
         <v>136</v>
       </c>
       <c r="F518" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G518" s="0" t="s">
         <v>12</v>
@@ -13081,7 +13078,7 @@
         <v>133</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G519" s="0" t="s">
         <v>12</v>
@@ -13104,7 +13101,7 @@
         <v>133</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G520" s="0" t="s">
         <v>12</v>
@@ -13127,7 +13124,7 @@
         <v>136</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G521" s="0" t="s">
         <v>12</v>
@@ -13150,7 +13147,7 @@
         <v>136</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G522" s="0" t="s">
         <v>12</v>
@@ -13173,7 +13170,7 @@
         <v>133</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G523" s="0" t="s">
         <v>12</v>
@@ -13196,7 +13193,7 @@
         <v>133</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G524" s="0" t="s">
         <v>12</v>
@@ -13219,7 +13216,7 @@
         <v>136</v>
       </c>
       <c r="F525" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G525" s="0" t="s">
         <v>12</v>
@@ -13242,7 +13239,7 @@
         <v>136</v>
       </c>
       <c r="F526" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G526" s="0" t="s">
         <v>12</v>
@@ -13265,7 +13262,7 @@
         <v>133</v>
       </c>
       <c r="F527" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G527" s="0" t="s">
         <v>12</v>
@@ -13288,7 +13285,7 @@
         <v>133</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G528" s="0" t="s">
         <v>12</v>
@@ -13311,7 +13308,7 @@
         <v>136</v>
       </c>
       <c r="F529" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G529" s="0" t="s">
         <v>12</v>
@@ -13334,7 +13331,7 @@
         <v>136</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G530" s="0" t="s">
         <v>12</v>
@@ -13342,7 +13339,7 @@
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B531" s="0" t="n">
         <f aca="false">B530+1</f>
@@ -13355,10 +13352,10 @@
         <v>9</v>
       </c>
       <c r="E531" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F531" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="F531" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="G531" s="0" t="s">
         <v>12</v>
@@ -13366,7 +13363,7 @@
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B532" s="0" t="n">
         <f aca="false">B531+1</f>
@@ -13379,10 +13376,10 @@
         <v>9</v>
       </c>
       <c r="E532" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F532" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="F532" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="G532" s="0" t="s">
         <v>12</v>
@@ -13390,7 +13387,7 @@
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B533" s="0" t="n">
         <f aca="false">B532+1</f>
@@ -13403,10 +13400,10 @@
         <v>20</v>
       </c>
       <c r="E533" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F533" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G533" s="0" t="s">
         <v>12</v>
@@ -13414,7 +13411,7 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B534" s="0" t="n">
         <v>2000011</v>
@@ -13426,10 +13423,10 @@
         <v>20</v>
       </c>
       <c r="E534" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F534" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G534" s="0" t="s">
         <v>12</v>
@@ -13437,7 +13434,7 @@
     </row>
     <row r="535" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B535" s="0" t="n">
         <v>2000014</v>
@@ -13449,10 +13446,10 @@
         <v>24</v>
       </c>
       <c r="E535" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F535" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F535" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="G535" s="0" t="s">
         <v>12</v>
@@ -13460,7 +13457,7 @@
     </row>
     <row r="536" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>2000017</v>
@@ -13472,10 +13469,10 @@
         <v>24</v>
       </c>
       <c r="E536" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F536" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F536" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="G536" s="0" t="s">
         <v>12</v>
@@ -13483,7 +13480,7 @@
     </row>
     <row r="537" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>2000020</v>
@@ -13495,10 +13492,10 @@
         <v>30</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G537" s="0" t="s">
         <v>12</v>
@@ -13506,7 +13503,7 @@
     </row>
     <row r="538" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B538" s="0" t="n">
         <v>2000023</v>
@@ -13518,10 +13515,10 @@
         <v>30</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G538" s="0" t="s">
         <v>12</v>
@@ -13529,7 +13526,7 @@
     </row>
     <row r="539" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B539" s="0" t="n">
         <v>2000026</v>
@@ -13541,10 +13538,10 @@
         <v>34</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G539" s="0" t="s">
         <v>12</v>
@@ -13552,7 +13549,7 @@
     </row>
     <row r="540" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B540" s="0" t="n">
         <v>2000029</v>
@@ -13564,10 +13561,10 @@
         <v>34</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G540" s="0" t="s">
         <v>12</v>
@@ -13575,7 +13572,7 @@
     </row>
     <row r="541" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B541" s="0" t="n">
         <v>2000032</v>
@@ -13587,10 +13584,10 @@
         <v>35</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G541" s="0" t="s">
         <v>12</v>
@@ -13598,7 +13595,7 @@
     </row>
     <row r="542" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B542" s="0" t="n">
         <v>2000035</v>
@@ -13610,10 +13607,10 @@
         <v>35</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G542" s="0" t="s">
         <v>12</v>
@@ -13621,7 +13618,7 @@
     </row>
     <row r="543" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B543" s="0" t="n">
         <v>2000038</v>
@@ -13633,10 +13630,10 @@
         <v>36</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G543" s="0" t="s">
         <v>12</v>
@@ -13644,7 +13641,7 @@
     </row>
     <row r="544" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B544" s="0" t="n">
         <v>2000041</v>
@@ -13656,10 +13653,10 @@
         <v>36</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G544" s="0" t="s">
         <v>12</v>
@@ -13667,7 +13664,7 @@
     </row>
     <row r="545" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B545" s="0" t="n">
         <v>2000044</v>
@@ -13679,10 +13676,10 @@
         <v>37</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G545" s="0" t="s">
         <v>12</v>
@@ -13690,7 +13687,7 @@
     </row>
     <row r="546" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B546" s="0" t="n">
         <v>2000047</v>
@@ -13702,10 +13699,10 @@
         <v>37</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G546" s="0" t="s">
         <v>12</v>
@@ -13713,7 +13710,7 @@
     </row>
     <row r="547" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B547" s="0" t="n">
         <v>2000050</v>
@@ -13725,10 +13722,10 @@
         <v>38</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G547" s="0" t="s">
         <v>12</v>
@@ -13736,7 +13733,7 @@
     </row>
     <row r="548" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B548" s="0" t="n">
         <v>2000053</v>
@@ -13748,10 +13745,10 @@
         <v>38</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G548" s="0" t="s">
         <v>12</v>
@@ -13759,7 +13756,7 @@
     </row>
     <row r="549" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B549" s="0" t="n">
         <v>2000056</v>
@@ -13771,10 +13768,10 @@
         <v>39</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G549" s="0" t="s">
         <v>12</v>
@@ -13782,7 +13779,7 @@
     </row>
     <row r="550" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>2000059</v>
@@ -13794,10 +13791,10 @@
         <v>39</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G550" s="0" t="s">
         <v>12</v>
@@ -13805,7 +13802,7 @@
     </row>
     <row r="551" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>2000062</v>
@@ -13817,10 +13814,10 @@
         <v>40</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G551" s="0" t="s">
         <v>12</v>
@@ -13828,7 +13825,7 @@
     </row>
     <row r="552" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>2000065</v>
@@ -13840,10 +13837,10 @@
         <v>40</v>
       </c>
       <c r="E552" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G552" s="0" t="s">
         <v>12</v>
@@ -13851,7 +13848,7 @@
     </row>
     <row r="553" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B553" s="0" t="n">
         <v>2000068</v>
@@ -13863,10 +13860,10 @@
         <v>44</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G553" s="0" t="s">
         <v>12</v>
@@ -13874,7 +13871,7 @@
     </row>
     <row r="554" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B554" s="0" t="n">
         <f aca="false">B553+1</f>
@@ -13887,10 +13884,10 @@
         <v>44</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G554" s="0" t="s">
         <v>12</v>
@@ -13898,7 +13895,7 @@
     </row>
     <row r="555" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B555" s="0" t="n">
         <f aca="false">B554+1</f>
@@ -13911,10 +13908,10 @@
         <v>44</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G555" s="0" t="s">
         <v>12</v>
@@ -13922,7 +13919,7 @@
     </row>
     <row r="556" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B556" s="0" t="n">
         <f aca="false">B555+1</f>
@@ -13935,10 +13932,10 @@
         <v>45</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G556" s="0" t="s">
         <v>12</v>
@@ -13946,7 +13943,7 @@
     </row>
     <row r="557" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B557" s="0" t="n">
         <f aca="false">B556+1</f>
@@ -13959,10 +13956,10 @@
         <v>45</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G557" s="0" t="s">
         <v>12</v>
@@ -13970,7 +13967,7 @@
     </row>
     <row r="558" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B558" s="0" t="n">
         <f aca="false">B557+1</f>
@@ -13983,10 +13980,10 @@
         <v>46</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G558" s="0" t="s">
         <v>12</v>
@@ -13994,7 +13991,7 @@
     </row>
     <row r="559" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B559" s="0" t="n">
         <f aca="false">B558+1</f>
@@ -14007,10 +14004,10 @@
         <v>46</v>
       </c>
       <c r="E559" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G559" s="0" t="s">
         <v>12</v>
@@ -14018,7 +14015,7 @@
     </row>
     <row r="560" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B560" s="0" t="n">
         <f aca="false">B559+1</f>
@@ -14031,10 +14028,10 @@
         <v>50</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G560" s="0" t="s">
         <v>12</v>
@@ -14042,7 +14039,7 @@
     </row>
     <row r="561" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B561" s="0" t="n">
         <f aca="false">B560+1</f>
@@ -14055,10 +14052,10 @@
         <v>50</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G561" s="0" t="s">
         <v>12</v>
@@ -14066,7 +14063,7 @@
     </row>
     <row r="562" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B562" s="0" t="n">
         <f aca="false">B561+1</f>
@@ -14079,10 +14076,10 @@
         <v>51</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G562" s="0" t="s">
         <v>12</v>
@@ -14090,7 +14087,7 @@
     </row>
     <row r="563" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B563" s="0" t="n">
         <f aca="false">B562+1</f>
@@ -14103,10 +14100,10 @@
         <v>51</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G563" s="0" t="s">
         <v>12</v>
@@ -14114,7 +14111,7 @@
     </row>
     <row r="564" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B564" s="0" t="n">
         <f aca="false">B563+1</f>
@@ -14127,10 +14124,10 @@
         <v>52</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G564" s="0" t="s">
         <v>12</v>
@@ -14138,7 +14135,7 @@
     </row>
     <row r="565" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B565" s="0" t="n">
         <f aca="false">B564+1</f>
@@ -14151,10 +14148,10 @@
         <v>52</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G565" s="0" t="s">
         <v>12</v>
@@ -14162,7 +14159,7 @@
     </row>
     <row r="566" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B566" s="0" t="n">
         <f aca="false">B565+1</f>
@@ -14175,10 +14172,10 @@
         <v>53</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G566" s="0" t="s">
         <v>12</v>
@@ -14186,7 +14183,7 @@
     </row>
     <row r="567" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B567" s="0" t="n">
         <f aca="false">B566+1</f>
@@ -14199,10 +14196,10 @@
         <v>53</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G567" s="0" t="s">
         <v>12</v>
@@ -14210,7 +14207,7 @@
     </row>
     <row r="568" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B568" s="0" t="n">
         <f aca="false">B567+1</f>
@@ -14223,10 +14220,10 @@
         <v>54</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G568" s="0" t="s">
         <v>12</v>
@@ -14234,7 +14231,7 @@
     </row>
     <row r="569" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B569" s="0" t="n">
         <f aca="false">B568+1</f>
@@ -14247,10 +14244,10 @@
         <v>54</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G569" s="0" t="s">
         <v>12</v>
@@ -14258,7 +14255,7 @@
     </row>
     <row r="570" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B570" s="0" t="n">
         <f aca="false">B569+1</f>
@@ -14271,10 +14268,10 @@
         <v>55</v>
       </c>
       <c r="E570" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G570" s="0" t="s">
         <v>12</v>
@@ -14282,7 +14279,7 @@
     </row>
     <row r="571" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B571" s="0" t="n">
         <f aca="false">B570+1</f>
@@ -14295,10 +14292,10 @@
         <v>59</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G571" s="0" t="s">
         <v>12</v>
@@ -14306,7 +14303,7 @@
     </row>
     <row r="572" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B572" s="0" t="n">
         <f aca="false">B571+1</f>
@@ -14319,10 +14316,10 @@
         <v>59</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G572" s="0" t="s">
         <v>12</v>
@@ -14330,7 +14327,7 @@
     </row>
     <row r="573" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B573" s="0" t="n">
         <f aca="false">B572+1</f>
@@ -14343,10 +14340,10 @@
         <v>60</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G573" s="0" t="s">
         <v>12</v>
@@ -14354,7 +14351,7 @@
     </row>
     <row r="574" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B574" s="0" t="n">
         <f aca="false">B573+1</f>
@@ -14367,10 +14364,10 @@
         <v>60</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G574" s="0" t="s">
         <v>12</v>
@@ -14378,7 +14375,7 @@
     </row>
     <row r="575" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B575" s="0" t="n">
         <f aca="false">B574+1</f>
@@ -14391,10 +14388,10 @@
         <v>61</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G575" s="0" t="s">
         <v>12</v>
@@ -14402,7 +14399,7 @@
     </row>
     <row r="576" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B576" s="0" t="n">
         <f aca="false">B575+1</f>
@@ -14415,10 +14412,10 @@
         <v>61</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G576" s="0" t="s">
         <v>12</v>
@@ -14426,7 +14423,7 @@
     </row>
     <row r="577" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B577" s="0" t="n">
         <f aca="false">B576+1</f>
@@ -14439,10 +14436,10 @@
         <v>62</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G577" s="0" t="s">
         <v>12</v>
@@ -14450,7 +14447,7 @@
     </row>
     <row r="578" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B578" s="0" t="n">
         <f aca="false">B577+1</f>
@@ -14463,10 +14460,10 @@
         <v>62</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G578" s="0" t="s">
         <v>12</v>
@@ -14474,7 +14471,7 @@
     </row>
     <row r="579" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B579" s="0" t="n">
         <f aca="false">B578+1</f>
@@ -14487,10 +14484,10 @@
         <v>63</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G579" s="0" t="s">
         <v>12</v>
@@ -14498,7 +14495,7 @@
     </row>
     <row r="580" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B580" s="0" t="n">
         <f aca="false">B579+1</f>
@@ -14511,10 +14508,10 @@
         <v>63</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G580" s="0" t="s">
         <v>12</v>
@@ -14522,7 +14519,7 @@
     </row>
     <row r="581" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B581" s="0" t="n">
         <f aca="false">B580+1</f>
@@ -14535,10 +14532,10 @@
         <v>64</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G581" s="0" t="s">
         <v>12</v>
@@ -14546,7 +14543,7 @@
     </row>
     <row r="582" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B582" s="0" t="n">
         <f aca="false">B581+1</f>
@@ -14559,10 +14556,10 @@
         <v>64</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G582" s="0" t="s">
         <v>12</v>
@@ -14570,7 +14567,7 @@
     </row>
     <row r="583" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B583" s="0" t="n">
         <f aca="false">B582+1</f>
@@ -14583,10 +14580,10 @@
         <v>65</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G583" s="0" t="s">
         <v>12</v>
@@ -14594,7 +14591,7 @@
     </row>
     <row r="584" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B584" s="0" t="n">
         <f aca="false">B583+1</f>
@@ -14607,10 +14604,10 @@
         <v>65</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G584" s="0" t="s">
         <v>12</v>
@@ -14618,7 +14615,7 @@
     </row>
     <row r="585" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B585" s="0" t="n">
         <f aca="false">B584+1</f>
@@ -14631,10 +14628,10 @@
         <v>66</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G585" s="0" t="s">
         <v>12</v>
@@ -14642,7 +14639,7 @@
     </row>
     <row r="586" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B586" s="0" t="n">
         <f aca="false">B585+1</f>
@@ -14655,10 +14652,10 @@
         <v>66</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G586" s="0" t="s">
         <v>12</v>
@@ -14666,7 +14663,7 @@
     </row>
     <row r="587" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B587" s="0" t="n">
         <f aca="false">B586+1</f>
@@ -14679,10 +14676,10 @@
         <v>67</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G587" s="0" t="s">
         <v>12</v>
@@ -14690,7 +14687,7 @@
     </row>
     <row r="588" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B588" s="0" t="n">
         <f aca="false">B587+1</f>
@@ -14703,10 +14700,10 @@
         <v>67</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G588" s="0" t="s">
         <v>12</v>
@@ -14714,7 +14711,7 @@
     </row>
     <row r="589" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B589" s="0" t="n">
         <f aca="false">B588+1</f>
@@ -14727,10 +14724,10 @@
         <v>68</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G589" s="0" t="s">
         <v>12</v>
@@ -14738,7 +14735,7 @@
     </row>
     <row r="590" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B590" s="0" t="n">
         <f aca="false">B589+1</f>
@@ -14751,10 +14748,10 @@
         <v>68</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G590" s="0" t="s">
         <v>12</v>
@@ -14762,7 +14759,7 @@
     </row>
     <row r="591" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B591" s="0" t="n">
         <f aca="false">B590+1</f>
@@ -14775,10 +14772,10 @@
         <v>69</v>
       </c>
       <c r="E591" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G591" s="0" t="s">
         <v>12</v>
@@ -14786,7 +14783,7 @@
     </row>
     <row r="592" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B592" s="0" t="n">
         <f aca="false">B591+1</f>
@@ -14799,10 +14796,10 @@
         <v>69</v>
       </c>
       <c r="E592" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G592" s="0" t="s">
         <v>12</v>
@@ -14810,7 +14807,7 @@
     </row>
     <row r="593" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B593" s="0" t="n">
         <f aca="false">B592+1</f>
@@ -14823,10 +14820,10 @@
         <v>73</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G593" s="0" t="s">
         <v>12</v>
@@ -14834,7 +14831,7 @@
     </row>
     <row r="594" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B594" s="0" t="n">
         <f aca="false">B593+1</f>
@@ -14847,10 +14844,10 @@
         <v>73</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G594" s="0" t="s">
         <v>12</v>
@@ -14858,7 +14855,7 @@
     </row>
     <row r="595" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B595" s="0" t="n">
         <f aca="false">B594+1</f>
@@ -14871,10 +14868,10 @@
         <v>74</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G595" s="0" t="s">
         <v>12</v>
@@ -14882,7 +14879,7 @@
     </row>
     <row r="596" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B596" s="0" t="n">
         <f aca="false">B595+1</f>
@@ -14895,10 +14892,10 @@
         <v>74</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G596" s="0" t="s">
         <v>12</v>
@@ -14906,7 +14903,7 @@
     </row>
     <row r="597" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B597" s="0" t="n">
         <f aca="false">B596+1</f>
@@ -14919,10 +14916,10 @@
         <v>75</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G597" s="0" t="s">
         <v>12</v>
@@ -14930,7 +14927,7 @@
     </row>
     <row r="598" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B598" s="0" t="n">
         <f aca="false">B597+1</f>
@@ -14943,10 +14940,10 @@
         <v>75</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G598" s="0" t="s">
         <v>12</v>
@@ -14954,7 +14951,7 @@
     </row>
     <row r="599" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B599" s="0" t="n">
         <f aca="false">B598+1</f>
@@ -14967,10 +14964,10 @@
         <v>76</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G599" s="0" t="s">
         <v>12</v>
@@ -14978,7 +14975,7 @@
     </row>
     <row r="600" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B600" s="0" t="n">
         <v>2000206</v>
@@ -14990,10 +14987,10 @@
         <v>76</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G600" s="0" t="s">
         <v>12</v>
@@ -15001,7 +14998,7 @@
     </row>
     <row r="601" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B601" s="0" t="n">
         <v>2000209</v>
@@ -15013,10 +15010,10 @@
         <v>77</v>
       </c>
       <c r="E601" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G601" s="0" t="s">
         <v>12</v>
@@ -15024,7 +15021,7 @@
     </row>
     <row r="602" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B602" s="0" t="n">
         <v>2000212</v>
@@ -15036,10 +15033,10 @@
         <v>77</v>
       </c>
       <c r="E602" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G602" s="0" t="s">
         <v>12</v>
@@ -15047,7 +15044,7 @@
     </row>
     <row r="603" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B603" s="0" t="n">
         <v>2000215</v>
@@ -15059,10 +15056,10 @@
         <v>80</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G603" s="0" t="s">
         <v>12</v>
@@ -15070,7 +15067,7 @@
     </row>
     <row r="604" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B604" s="0" t="n">
         <v>2000218</v>
@@ -15082,10 +15079,10 @@
         <v>80</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G604" s="0" t="s">
         <v>12</v>
@@ -15093,7 +15090,7 @@
     </row>
     <row r="605" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B605" s="0" t="n">
         <v>2000221</v>
@@ -15105,10 +15102,10 @@
         <v>81</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G605" s="0" t="s">
         <v>12</v>
@@ -15116,7 +15113,7 @@
     </row>
     <row r="606" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B606" s="0" t="n">
         <v>2000224</v>
@@ -15128,10 +15125,10 @@
         <v>81</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G606" s="0" t="s">
         <v>12</v>
@@ -15139,7 +15136,7 @@
     </row>
     <row r="607" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B607" s="0" t="n">
         <v>2000227</v>
@@ -15151,10 +15148,10 @@
         <v>82</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G607" s="0" t="s">
         <v>12</v>
@@ -15162,7 +15159,7 @@
     </row>
     <row r="608" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B608" s="0" t="n">
         <v>2000230</v>
@@ -15174,10 +15171,10 @@
         <v>82</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G608" s="0" t="s">
         <v>12</v>
@@ -15185,7 +15182,7 @@
     </row>
     <row r="609" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B609" s="0" t="n">
         <v>2000233</v>
@@ -15197,10 +15194,10 @@
         <v>83</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G609" s="0" t="s">
         <v>12</v>
@@ -15208,7 +15205,7 @@
     </row>
     <row r="610" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B610" s="0" t="n">
         <v>2000236</v>
@@ -15220,10 +15217,10 @@
         <v>83</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G610" s="0" t="s">
         <v>12</v>
@@ -15231,7 +15228,7 @@
     </row>
     <row r="611" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B611" s="0" t="n">
         <v>2000239</v>
@@ -15243,10 +15240,10 @@
         <v>84</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G611" s="0" t="s">
         <v>12</v>
@@ -15254,7 +15251,7 @@
     </row>
     <row r="612" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B612" s="0" t="n">
         <v>2000242</v>
@@ -15266,10 +15263,10 @@
         <v>84</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G612" s="0" t="s">
         <v>12</v>
@@ -15277,7 +15274,7 @@
     </row>
     <row r="613" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B613" s="0" t="n">
         <v>2000245</v>
@@ -15289,10 +15286,10 @@
         <v>85</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G613" s="0" t="s">
         <v>12</v>
@@ -15300,7 +15297,7 @@
     </row>
     <row r="614" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B614" s="0" t="n">
         <v>2000248</v>
@@ -15312,10 +15309,10 @@
         <v>85</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G614" s="0" t="s">
         <v>12</v>
@@ -15323,7 +15320,7 @@
     </row>
     <row r="615" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B615" s="0" t="n">
         <v>2000251</v>
@@ -15335,10 +15332,10 @@
         <v>86</v>
       </c>
       <c r="E615" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G615" s="0" t="s">
         <v>12</v>
@@ -15346,7 +15343,7 @@
     </row>
     <row r="616" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B616" s="0" t="n">
         <v>2000254</v>
@@ -15358,10 +15355,10 @@
         <v>86</v>
       </c>
       <c r="E616" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G616" s="0" t="s">
         <v>12</v>
@@ -15369,7 +15366,7 @@
     </row>
     <row r="617" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B617" s="0" t="n">
         <v>2000257</v>
@@ -15381,10 +15378,10 @@
         <v>90</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G617" s="0" t="s">
         <v>12</v>
@@ -15392,7 +15389,7 @@
     </row>
     <row r="618" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B618" s="0" t="n">
         <v>2000260</v>
@@ -15404,10 +15401,10 @@
         <v>90</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G618" s="0" t="s">
         <v>12</v>
@@ -15415,7 +15412,7 @@
     </row>
     <row r="619" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B619" s="0" t="n">
         <v>2000263</v>
@@ -15427,10 +15424,10 @@
         <v>91</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G619" s="0" t="s">
         <v>12</v>
@@ -15438,7 +15435,7 @@
     </row>
     <row r="620" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B620" s="0" t="n">
         <v>2000266</v>
@@ -15450,10 +15447,10 @@
         <v>91</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G620" s="0" t="s">
         <v>12</v>
@@ -15461,7 +15458,7 @@
     </row>
     <row r="621" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B621" s="0" t="n">
         <v>2000269</v>
@@ -15473,10 +15470,10 @@
         <v>92</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G621" s="0" t="s">
         <v>12</v>
@@ -15484,7 +15481,7 @@
     </row>
     <row r="622" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B622" s="0" t="n">
         <v>2000272</v>
@@ -15496,10 +15493,10 @@
         <v>92</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G622" s="0" t="s">
         <v>12</v>
@@ -15507,7 +15504,7 @@
     </row>
     <row r="623" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B623" s="0" t="n">
         <v>2000275</v>
@@ -15519,10 +15516,10 @@
         <v>93</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G623" s="0" t="s">
         <v>12</v>
@@ -15530,7 +15527,7 @@
     </row>
     <row r="624" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B624" s="0" t="n">
         <v>2000278</v>
@@ -15542,10 +15539,10 @@
         <v>93</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G624" s="0" t="s">
         <v>12</v>
@@ -15553,7 +15550,7 @@
     </row>
     <row r="625" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B625" s="0" t="n">
         <v>2000281</v>
@@ -15565,10 +15562,10 @@
         <v>94</v>
       </c>
       <c r="E625" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G625" s="0" t="s">
         <v>12</v>
@@ -15576,7 +15573,7 @@
     </row>
     <row r="626" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B626" s="0" t="n">
         <v>2000284</v>
@@ -15588,10 +15585,10 @@
         <v>94</v>
       </c>
       <c r="E626" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G626" s="0" t="s">
         <v>12</v>
@@ -15599,7 +15596,7 @@
     </row>
     <row r="627" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B627" s="0" t="n">
         <v>2000287</v>
@@ -15611,10 +15608,10 @@
         <v>98</v>
       </c>
       <c r="E627" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G627" s="0" t="s">
         <v>12</v>
@@ -15622,7 +15619,7 @@
     </row>
     <row r="628" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B628" s="0" t="n">
         <v>2000290</v>
@@ -15634,10 +15631,10 @@
         <v>98</v>
       </c>
       <c r="E628" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G628" s="0" t="s">
         <v>12</v>
@@ -15645,7 +15642,7 @@
     </row>
     <row r="629" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B629" s="0" t="n">
         <v>2000293</v>
@@ -15657,10 +15654,10 @@
         <v>102</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G629" s="0" t="s">
         <v>12</v>
@@ -15668,7 +15665,7 @@
     </row>
     <row r="630" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B630" s="0" t="n">
         <v>2000296</v>
@@ -15680,10 +15677,10 @@
         <v>102</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G630" s="0" t="s">
         <v>12</v>
@@ -15691,7 +15688,7 @@
     </row>
     <row r="631" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B631" s="0" t="n">
         <v>2000299</v>
@@ -15703,10 +15700,10 @@
         <v>103</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G631" s="0" t="s">
         <v>12</v>
@@ -15714,7 +15711,7 @@
     </row>
     <row r="632" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B632" s="0" t="n">
         <v>2000302</v>
@@ -15726,10 +15723,10 @@
         <v>103</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G632" s="0" t="s">
         <v>12</v>
@@ -15737,7 +15734,7 @@
     </row>
     <row r="633" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B633" s="0" t="n">
         <v>2000305</v>
@@ -15749,10 +15746,10 @@
         <v>104</v>
       </c>
       <c r="E633" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G633" s="0" t="s">
         <v>12</v>
@@ -15760,7 +15757,7 @@
     </row>
     <row r="634" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B634" s="0" t="n">
         <v>2000308</v>
@@ -15772,10 +15769,10 @@
         <v>104</v>
       </c>
       <c r="E634" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G634" s="0" t="s">
         <v>12</v>
@@ -15783,7 +15780,7 @@
     </row>
     <row r="635" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B635" s="0" t="n">
         <v>2000311</v>
@@ -15795,10 +15792,10 @@
         <v>108</v>
       </c>
       <c r="E635" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G635" s="0" t="s">
         <v>12</v>
@@ -15806,7 +15803,7 @@
     </row>
     <row r="636" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B636" s="0" t="n">
         <v>2000314</v>
@@ -15818,10 +15815,10 @@
         <v>112</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G636" s="0" t="s">
         <v>12</v>
@@ -15829,7 +15826,7 @@
     </row>
     <row r="637" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B637" s="0" t="n">
         <v>2000317</v>
@@ -15841,10 +15838,10 @@
         <v>112</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G637" s="0" t="s">
         <v>12</v>
@@ -15852,7 +15849,7 @@
     </row>
     <row r="638" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B638" s="0" t="n">
         <v>2000320</v>
@@ -15864,10 +15861,10 @@
         <v>113</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G638" s="0" t="s">
         <v>12</v>
@@ -15875,7 +15872,7 @@
     </row>
     <row r="639" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B639" s="0" t="n">
         <v>2000323</v>
@@ -15887,10 +15884,10 @@
         <v>113</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G639" s="0" t="s">
         <v>12</v>
@@ -15898,7 +15895,7 @@
     </row>
     <row r="640" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B640" s="0" t="n">
         <v>2000326</v>
@@ -15910,10 +15907,10 @@
         <v>114</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G640" s="0" t="s">
         <v>12</v>
@@ -15921,7 +15918,7 @@
     </row>
     <row r="641" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B641" s="0" t="n">
         <v>2000329</v>
@@ -15933,10 +15930,10 @@
         <v>114</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G641" s="0" t="s">
         <v>12</v>
@@ -15944,7 +15941,7 @@
     </row>
     <row r="642" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B642" s="0" t="n">
         <v>2000332</v>
@@ -15956,10 +15953,10 @@
         <v>115</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G642" s="0" t="s">
         <v>12</v>
@@ -15967,7 +15964,7 @@
     </row>
     <row r="643" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B643" s="0" t="n">
         <v>2000335</v>
@@ -15979,10 +15976,10 @@
         <v>115</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G643" s="0" t="s">
         <v>12</v>
@@ -15990,7 +15987,7 @@
     </row>
     <row r="644" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B644" s="0" t="n">
         <v>2000338</v>
@@ -16002,10 +15999,10 @@
         <v>116</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G644" s="0" t="s">
         <v>12</v>
@@ -16013,7 +16010,7 @@
     </row>
     <row r="645" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B645" s="0" t="n">
         <v>2000341</v>
@@ -16025,10 +16022,10 @@
         <v>116</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G645" s="0" t="s">
         <v>12</v>
@@ -16036,7 +16033,7 @@
     </row>
     <row r="646" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B646" s="0" t="n">
         <v>2000344</v>
@@ -16048,10 +16045,10 @@
         <v>117</v>
       </c>
       <c r="E646" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G646" s="0" t="s">
         <v>12</v>
@@ -16059,7 +16056,7 @@
     </row>
     <row r="647" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B647" s="0" t="n">
         <v>2000347</v>
@@ -16071,10 +16068,10 @@
         <v>117</v>
       </c>
       <c r="E647" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G647" s="0" t="s">
         <v>12</v>
@@ -16082,7 +16079,7 @@
     </row>
     <row r="648" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B648" s="0" t="n">
         <v>2000350</v>
@@ -16094,10 +16091,10 @@
         <v>121</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F648" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G648" s="0" t="s">
         <v>12</v>
@@ -16105,7 +16102,7 @@
     </row>
     <row r="649" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B649" s="0" t="n">
         <v>2000353</v>
@@ -16117,10 +16114,10 @@
         <v>121</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F649" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G649" s="0" t="s">
         <v>12</v>
@@ -16128,7 +16125,7 @@
     </row>
     <row r="650" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B650" s="0" t="n">
         <v>2000356</v>
@@ -16140,10 +16137,10 @@
         <v>122</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F650" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G650" s="0" t="s">
         <v>12</v>
@@ -16151,7 +16148,7 @@
     </row>
     <row r="651" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B651" s="0" t="n">
         <v>2000359</v>
@@ -16163,10 +16160,10 @@
         <v>122</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F651" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G651" s="0" t="s">
         <v>12</v>
@@ -16174,7 +16171,7 @@
     </row>
     <row r="652" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B652" s="0" t="n">
         <v>2000362</v>
@@ -16186,10 +16183,10 @@
         <v>123</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F652" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G652" s="0" t="s">
         <v>12</v>
@@ -16197,7 +16194,7 @@
     </row>
     <row r="653" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B653" s="0" t="n">
         <v>2000365</v>
@@ -16209,10 +16206,10 @@
         <v>123</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F653" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G653" s="0" t="s">
         <v>12</v>
@@ -16220,7 +16217,7 @@
     </row>
     <row r="654" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B654" s="0" t="n">
         <v>2000368</v>
@@ -16232,10 +16229,10 @@
         <v>124</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F654" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G654" s="0" t="s">
         <v>12</v>
@@ -16243,7 +16240,7 @@
     </row>
     <row r="655" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B655" s="0" t="n">
         <v>2000371</v>
@@ -16255,10 +16252,10 @@
         <v>124</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F655" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G655" s="0" t="s">
         <v>12</v>
@@ -16266,7 +16263,7 @@
     </row>
     <row r="656" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B656" s="0" t="n">
         <v>2000374</v>
@@ -16278,10 +16275,10 @@
         <v>125</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F656" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G656" s="0" t="s">
         <v>12</v>
@@ -16289,7 +16286,7 @@
     </row>
     <row r="657" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B657" s="0" t="n">
         <v>2000377</v>
@@ -16301,10 +16298,10 @@
         <v>125</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F657" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G657" s="0" t="s">
         <v>12</v>
@@ -16312,7 +16309,7 @@
     </row>
     <row r="658" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B658" s="0" t="n">
         <v>2000380</v>
@@ -16324,10 +16321,10 @@
         <v>126</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F658" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G658" s="0" t="s">
         <v>12</v>
@@ -16335,7 +16332,7 @@
     </row>
     <row r="659" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B659" s="0" t="n">
         <v>2000383</v>
@@ -16347,10 +16344,10 @@
         <v>126</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F659" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G659" s="0" t="s">
         <v>12</v>
@@ -16358,7 +16355,7 @@
     </row>
     <row r="660" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B660" s="0" t="n">
         <v>2000386</v>
@@ -16370,10 +16367,10 @@
         <v>127</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F660" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G660" s="0" t="s">
         <v>12</v>
@@ -16381,7 +16378,7 @@
     </row>
     <row r="661" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B661" s="0" t="n">
         <v>2000389</v>
@@ -16393,10 +16390,10 @@
         <v>127</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F661" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G661" s="0" t="s">
         <v>12</v>
@@ -16404,7 +16401,7 @@
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B662" s="0" t="n">
         <v>2000392</v>
@@ -16416,10 +16413,10 @@
         <v>128</v>
       </c>
       <c r="E662" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F662" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G662" s="0" t="s">
         <v>12</v>
@@ -16427,7 +16424,7 @@
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B663" s="0" t="n">
         <v>2000395</v>
@@ -16439,10 +16436,10 @@
         <v>128</v>
       </c>
       <c r="E663" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F663" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G663" s="0" t="s">
         <v>12</v>
@@ -16450,7 +16447,7 @@
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B664" s="0" t="n">
         <f aca="false">B663+1</f>
@@ -16463,10 +16460,10 @@
         <v>9</v>
       </c>
       <c r="E664" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F664" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="F664" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="G664" s="0" t="s">
         <v>12</v>
@@ -16474,7 +16471,7 @@
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B665" s="0" t="n">
         <f aca="false">B664+1</f>
@@ -16487,10 +16484,10 @@
         <v>9</v>
       </c>
       <c r="E665" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F665" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="F665" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="G665" s="0" t="s">
         <v>12</v>
@@ -16498,7 +16495,7 @@
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B666" s="0" t="n">
         <f aca="false">B665+1</f>
@@ -16511,10 +16508,10 @@
         <v>20</v>
       </c>
       <c r="E666" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F666" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G666" s="0" t="s">
         <v>12</v>
@@ -16522,7 +16519,7 @@
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B667" s="0" t="n">
         <v>2000011</v>
@@ -16534,10 +16531,10 @@
         <v>20</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F667" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G667" s="0" t="s">
         <v>12</v>
@@ -16545,7 +16542,7 @@
     </row>
     <row r="668" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B668" s="0" t="n">
         <v>2000014</v>
@@ -16557,10 +16554,10 @@
         <v>24</v>
       </c>
       <c r="E668" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F668" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F668" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G668" s="0" t="s">
         <v>12</v>
@@ -16568,7 +16565,7 @@
     </row>
     <row r="669" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B669" s="0" t="n">
         <v>2000017</v>
@@ -16580,10 +16577,10 @@
         <v>24</v>
       </c>
       <c r="E669" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F669" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F669" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G669" s="0" t="s">
         <v>12</v>
@@ -16591,7 +16588,7 @@
     </row>
     <row r="670" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B670" s="0" t="n">
         <v>2000020</v>
@@ -16603,10 +16600,10 @@
         <v>30</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F670" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G670" s="0" t="s">
         <v>12</v>
@@ -16614,7 +16611,7 @@
     </row>
     <row r="671" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B671" s="0" t="n">
         <v>2000023</v>
@@ -16626,10 +16623,10 @@
         <v>30</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F671" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G671" s="0" t="s">
         <v>12</v>
@@ -16637,7 +16634,7 @@
     </row>
     <row r="672" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B672" s="0" t="n">
         <v>2000026</v>
@@ -16649,10 +16646,10 @@
         <v>34</v>
       </c>
       <c r="E672" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F672" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F672" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G672" s="0" t="s">
         <v>12</v>
@@ -16660,7 +16657,7 @@
     </row>
     <row r="673" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B673" s="0" t="n">
         <v>2000029</v>
@@ -16672,10 +16669,10 @@
         <v>34</v>
       </c>
       <c r="E673" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F673" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F673" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G673" s="0" t="s">
         <v>12</v>
@@ -16683,7 +16680,7 @@
     </row>
     <row r="674" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B674" s="0" t="n">
         <v>2000032</v>
@@ -16695,10 +16692,10 @@
         <v>35</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G674" s="0" t="s">
         <v>12</v>
@@ -16706,7 +16703,7 @@
     </row>
     <row r="675" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B675" s="0" t="n">
         <v>2000035</v>
@@ -16718,10 +16715,10 @@
         <v>35</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F675" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G675" s="0" t="s">
         <v>12</v>
@@ -16729,7 +16726,7 @@
     </row>
     <row r="676" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B676" s="0" t="n">
         <v>2000038</v>
@@ -16741,10 +16738,10 @@
         <v>36</v>
       </c>
       <c r="E676" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F676" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F676" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G676" s="0" t="s">
         <v>12</v>
@@ -16752,7 +16749,7 @@
     </row>
     <row r="677" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B677" s="0" t="n">
         <v>2000041</v>
@@ -16764,10 +16761,10 @@
         <v>36</v>
       </c>
       <c r="E677" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F677" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F677" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G677" s="0" t="s">
         <v>12</v>
@@ -16775,7 +16772,7 @@
     </row>
     <row r="678" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B678" s="0" t="n">
         <v>2000044</v>
@@ -16787,10 +16784,10 @@
         <v>37</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F678" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G678" s="0" t="s">
         <v>12</v>
@@ -16798,7 +16795,7 @@
     </row>
     <row r="679" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B679" s="0" t="n">
         <v>2000047</v>
@@ -16810,10 +16807,10 @@
         <v>37</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G679" s="0" t="s">
         <v>12</v>
@@ -16821,7 +16818,7 @@
     </row>
     <row r="680" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B680" s="0" t="n">
         <v>2000050</v>
@@ -16833,10 +16830,10 @@
         <v>38</v>
       </c>
       <c r="E680" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F680" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F680" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G680" s="0" t="s">
         <v>12</v>
@@ -16844,7 +16841,7 @@
     </row>
     <row r="681" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B681" s="0" t="n">
         <v>2000053</v>
@@ -16856,10 +16853,10 @@
         <v>38</v>
       </c>
       <c r="E681" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F681" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F681" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G681" s="0" t="s">
         <v>12</v>
@@ -16867,7 +16864,7 @@
     </row>
     <row r="682" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B682" s="0" t="n">
         <v>2000056</v>
@@ -16879,10 +16876,10 @@
         <v>39</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G682" s="0" t="s">
         <v>12</v>
@@ -16890,7 +16887,7 @@
     </row>
     <row r="683" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B683" s="0" t="n">
         <v>2000059</v>
@@ -16902,10 +16899,10 @@
         <v>39</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F683" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G683" s="0" t="s">
         <v>12</v>
@@ -16913,7 +16910,7 @@
     </row>
     <row r="684" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B684" s="0" t="n">
         <v>2000062</v>
@@ -16925,10 +16922,10 @@
         <v>40</v>
       </c>
       <c r="E684" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F684" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G684" s="0" t="s">
         <v>12</v>
@@ -16936,7 +16933,7 @@
     </row>
     <row r="685" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B685" s="0" t="n">
         <v>2000065</v>
@@ -16948,10 +16945,10 @@
         <v>40</v>
       </c>
       <c r="E685" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G685" s="0" t="s">
         <v>12</v>
@@ -16959,7 +16956,7 @@
     </row>
     <row r="686" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B686" s="0" t="n">
         <v>2000068</v>
@@ -16971,10 +16968,10 @@
         <v>44</v>
       </c>
       <c r="E686" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F686" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F686" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G686" s="0" t="s">
         <v>12</v>
@@ -16982,7 +16979,7 @@
     </row>
     <row r="687" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B687" s="0" t="n">
         <f aca="false">B686+1</f>
@@ -16995,10 +16992,10 @@
         <v>44</v>
       </c>
       <c r="E687" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F687" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F687" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G687" s="0" t="s">
         <v>12</v>
@@ -17006,7 +17003,7 @@
     </row>
     <row r="688" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B688" s="0" t="n">
         <f aca="false">B687+1</f>
@@ -17019,10 +17016,10 @@
         <v>44</v>
       </c>
       <c r="E688" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F688" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F688" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G688" s="0" t="s">
         <v>12</v>
@@ -17030,7 +17027,7 @@
     </row>
     <row r="689" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B689" s="0" t="n">
         <f aca="false">B688+1</f>
@@ -17043,10 +17040,10 @@
         <v>45</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F689" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G689" s="0" t="s">
         <v>12</v>
@@ -17054,7 +17051,7 @@
     </row>
     <row r="690" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B690" s="0" t="n">
         <f aca="false">B689+1</f>
@@ -17067,10 +17064,10 @@
         <v>45</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F690" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G690" s="0" t="s">
         <v>12</v>
@@ -17078,7 +17075,7 @@
     </row>
     <row r="691" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B691" s="0" t="n">
         <f aca="false">B690+1</f>
@@ -17091,10 +17088,10 @@
         <v>46</v>
       </c>
       <c r="E691" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F691" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G691" s="0" t="s">
         <v>12</v>
@@ -17102,7 +17099,7 @@
     </row>
     <row r="692" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B692" s="0" t="n">
         <f aca="false">B691+1</f>
@@ -17115,10 +17112,10 @@
         <v>46</v>
       </c>
       <c r="E692" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F692" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G692" s="0" t="s">
         <v>12</v>
@@ -17126,7 +17123,7 @@
     </row>
     <row r="693" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B693" s="0" t="n">
         <f aca="false">B692+1</f>
@@ -17139,10 +17136,10 @@
         <v>50</v>
       </c>
       <c r="E693" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F693" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F693" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G693" s="0" t="s">
         <v>12</v>
@@ -17150,7 +17147,7 @@
     </row>
     <row r="694" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B694" s="0" t="n">
         <f aca="false">B693+1</f>
@@ -17163,10 +17160,10 @@
         <v>50</v>
       </c>
       <c r="E694" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F694" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F694" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G694" s="0" t="s">
         <v>12</v>
@@ -17174,7 +17171,7 @@
     </row>
     <row r="695" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B695" s="0" t="n">
         <f aca="false">B694+1</f>
@@ -17187,10 +17184,10 @@
         <v>51</v>
       </c>
       <c r="E695" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F695" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F695" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G695" s="0" t="s">
         <v>12</v>
@@ -17198,7 +17195,7 @@
     </row>
     <row r="696" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B696" s="0" t="n">
         <f aca="false">B695+1</f>
@@ -17211,10 +17208,10 @@
         <v>51</v>
       </c>
       <c r="E696" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F696" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F696" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G696" s="0" t="s">
         <v>12</v>
@@ -17222,7 +17219,7 @@
     </row>
     <row r="697" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B697" s="0" t="n">
         <f aca="false">B696+1</f>
@@ -17235,10 +17232,10 @@
         <v>52</v>
       </c>
       <c r="E697" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F697" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G697" s="0" t="s">
         <v>12</v>
@@ -17246,7 +17243,7 @@
     </row>
     <row r="698" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B698" s="0" t="n">
         <f aca="false">B697+1</f>
@@ -17259,10 +17256,10 @@
         <v>52</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F698" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G698" s="0" t="s">
         <v>12</v>
@@ -17270,7 +17267,7 @@
     </row>
     <row r="699" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B699" s="0" t="n">
         <f aca="false">B698+1</f>
@@ -17283,10 +17280,10 @@
         <v>53</v>
       </c>
       <c r="E699" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F699" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G699" s="0" t="s">
         <v>12</v>
@@ -17294,7 +17291,7 @@
     </row>
     <row r="700" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B700" s="0" t="n">
         <f aca="false">B699+1</f>
@@ -17307,10 +17304,10 @@
         <v>53</v>
       </c>
       <c r="E700" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F700" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G700" s="0" t="s">
         <v>12</v>
@@ -17318,7 +17315,7 @@
     </row>
     <row r="701" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B701" s="0" t="n">
         <f aca="false">B700+1</f>
@@ -17331,10 +17328,10 @@
         <v>54</v>
       </c>
       <c r="E701" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F701" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F701" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G701" s="0" t="s">
         <v>12</v>
@@ -17342,7 +17339,7 @@
     </row>
     <row r="702" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B702" s="0" t="n">
         <f aca="false">B701+1</f>
@@ -17355,10 +17352,10 @@
         <v>54</v>
       </c>
       <c r="E702" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F702" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F702" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G702" s="0" t="s">
         <v>12</v>
@@ -17366,7 +17363,7 @@
     </row>
     <row r="703" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B703" s="0" t="n">
         <f aca="false">B702+1</f>
@@ -17379,10 +17376,10 @@
         <v>55</v>
       </c>
       <c r="E703" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F703" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G703" s="0" t="s">
         <v>12</v>
@@ -17390,7 +17387,7 @@
     </row>
     <row r="704" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B704" s="0" t="n">
         <f aca="false">B703+1</f>
@@ -17403,10 +17400,10 @@
         <v>59</v>
       </c>
       <c r="E704" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F704" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F704" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G704" s="0" t="s">
         <v>12</v>
@@ -17414,7 +17411,7 @@
     </row>
     <row r="705" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B705" s="0" t="n">
         <f aca="false">B704+1</f>
@@ -17427,10 +17424,10 @@
         <v>59</v>
       </c>
       <c r="E705" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F705" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F705" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G705" s="0" t="s">
         <v>12</v>
@@ -17438,7 +17435,7 @@
     </row>
     <row r="706" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B706" s="0" t="n">
         <f aca="false">B705+1</f>
@@ -17451,10 +17448,10 @@
         <v>60</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F706" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G706" s="0" t="s">
         <v>12</v>
@@ -17462,7 +17459,7 @@
     </row>
     <row r="707" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B707" s="0" t="n">
         <f aca="false">B706+1</f>
@@ -17475,10 +17472,10 @@
         <v>60</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F707" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G707" s="0" t="s">
         <v>12</v>
@@ -17486,7 +17483,7 @@
     </row>
     <row r="708" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B708" s="0" t="n">
         <f aca="false">B707+1</f>
@@ -17499,10 +17496,10 @@
         <v>61</v>
       </c>
       <c r="E708" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F708" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F708" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G708" s="0" t="s">
         <v>12</v>
@@ -17510,7 +17507,7 @@
     </row>
     <row r="709" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B709" s="0" t="n">
         <f aca="false">B708+1</f>
@@ -17523,10 +17520,10 @@
         <v>61</v>
       </c>
       <c r="E709" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F709" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F709" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G709" s="0" t="s">
         <v>12</v>
@@ -17534,7 +17531,7 @@
     </row>
     <row r="710" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B710" s="0" t="n">
         <f aca="false">B709+1</f>
@@ -17547,10 +17544,10 @@
         <v>62</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F710" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G710" s="0" t="s">
         <v>12</v>
@@ -17558,7 +17555,7 @@
     </row>
     <row r="711" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B711" s="0" t="n">
         <f aca="false">B710+1</f>
@@ -17571,10 +17568,10 @@
         <v>62</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F711" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G711" s="0" t="s">
         <v>12</v>
@@ -17582,7 +17579,7 @@
     </row>
     <row r="712" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B712" s="0" t="n">
         <f aca="false">B711+1</f>
@@ -17595,10 +17592,10 @@
         <v>63</v>
       </c>
       <c r="E712" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F712" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F712" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G712" s="0" t="s">
         <v>12</v>
@@ -17606,7 +17603,7 @@
     </row>
     <row r="713" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B713" s="0" t="n">
         <f aca="false">B712+1</f>
@@ -17619,10 +17616,10 @@
         <v>63</v>
       </c>
       <c r="E713" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F713" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F713" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G713" s="0" t="s">
         <v>12</v>
@@ -17630,7 +17627,7 @@
     </row>
     <row r="714" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B714" s="0" t="n">
         <f aca="false">B713+1</f>
@@ -17643,10 +17640,10 @@
         <v>64</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F714" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G714" s="0" t="s">
         <v>12</v>
@@ -17654,7 +17651,7 @@
     </row>
     <row r="715" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B715" s="0" t="n">
         <f aca="false">B714+1</f>
@@ -17667,10 +17664,10 @@
         <v>64</v>
       </c>
       <c r="E715" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F715" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G715" s="0" t="s">
         <v>12</v>
@@ -17678,7 +17675,7 @@
     </row>
     <row r="716" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B716" s="0" t="n">
         <f aca="false">B715+1</f>
@@ -17691,10 +17688,10 @@
         <v>65</v>
       </c>
       <c r="E716" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F716" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F716" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G716" s="0" t="s">
         <v>12</v>
@@ -17702,7 +17699,7 @@
     </row>
     <row r="717" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B717" s="0" t="n">
         <f aca="false">B716+1</f>
@@ -17715,10 +17712,10 @@
         <v>65</v>
       </c>
       <c r="E717" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F717" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F717" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G717" s="0" t="s">
         <v>12</v>
@@ -17726,7 +17723,7 @@
     </row>
     <row r="718" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B718" s="0" t="n">
         <f aca="false">B717+1</f>
@@ -17739,10 +17736,10 @@
         <v>66</v>
       </c>
       <c r="E718" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F718" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G718" s="0" t="s">
         <v>12</v>
@@ -17750,7 +17747,7 @@
     </row>
     <row r="719" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B719" s="0" t="n">
         <f aca="false">B718+1</f>
@@ -17763,10 +17760,10 @@
         <v>66</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F719" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G719" s="0" t="s">
         <v>12</v>
@@ -17774,7 +17771,7 @@
     </row>
     <row r="720" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B720" s="0" t="n">
         <f aca="false">B719+1</f>
@@ -17787,10 +17784,10 @@
         <v>67</v>
       </c>
       <c r="E720" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F720" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F720" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G720" s="0" t="s">
         <v>12</v>
@@ -17798,7 +17795,7 @@
     </row>
     <row r="721" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B721" s="0" t="n">
         <f aca="false">B720+1</f>
@@ -17811,10 +17808,10 @@
         <v>67</v>
       </c>
       <c r="E721" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F721" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F721" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G721" s="0" t="s">
         <v>12</v>
@@ -17822,7 +17819,7 @@
     </row>
     <row r="722" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B722" s="0" t="n">
         <f aca="false">B721+1</f>
@@ -17835,10 +17832,10 @@
         <v>68</v>
       </c>
       <c r="E722" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F722" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G722" s="0" t="s">
         <v>12</v>
@@ -17846,7 +17843,7 @@
     </row>
     <row r="723" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B723" s="0" t="n">
         <f aca="false">B722+1</f>
@@ -17859,10 +17856,10 @@
         <v>68</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F723" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G723" s="0" t="s">
         <v>12</v>
@@ -17870,7 +17867,7 @@
     </row>
     <row r="724" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B724" s="0" t="n">
         <f aca="false">B723+1</f>
@@ -17883,10 +17880,10 @@
         <v>69</v>
       </c>
       <c r="E724" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F724" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G724" s="0" t="s">
         <v>12</v>
@@ -17894,7 +17891,7 @@
     </row>
     <row r="725" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B725" s="0" t="n">
         <f aca="false">B724+1</f>
@@ -17907,10 +17904,10 @@
         <v>69</v>
       </c>
       <c r="E725" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F725" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G725" s="0" t="s">
         <v>12</v>
@@ -17918,7 +17915,7 @@
     </row>
     <row r="726" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B726" s="0" t="n">
         <f aca="false">B725+1</f>
@@ -17931,10 +17928,10 @@
         <v>73</v>
       </c>
       <c r="E726" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F726" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F726" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G726" s="0" t="s">
         <v>12</v>
@@ -17942,7 +17939,7 @@
     </row>
     <row r="727" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B727" s="0" t="n">
         <f aca="false">B726+1</f>
@@ -17955,10 +17952,10 @@
         <v>73</v>
       </c>
       <c r="E727" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F727" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F727" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G727" s="0" t="s">
         <v>12</v>
@@ -17966,7 +17963,7 @@
     </row>
     <row r="728" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B728" s="0" t="n">
         <f aca="false">B727+1</f>
@@ -17979,10 +17976,10 @@
         <v>74</v>
       </c>
       <c r="E728" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F728" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G728" s="0" t="s">
         <v>12</v>
@@ -17990,7 +17987,7 @@
     </row>
     <row r="729" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B729" s="0" t="n">
         <f aca="false">B728+1</f>
@@ -18003,10 +18000,10 @@
         <v>74</v>
       </c>
       <c r="E729" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F729" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G729" s="0" t="s">
         <v>12</v>
@@ -18014,7 +18011,7 @@
     </row>
     <row r="730" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B730" s="0" t="n">
         <f aca="false">B729+1</f>
@@ -18027,10 +18024,10 @@
         <v>75</v>
       </c>
       <c r="E730" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F730" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F730" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G730" s="0" t="s">
         <v>12</v>
@@ -18038,7 +18035,7 @@
     </row>
     <row r="731" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B731" s="0" t="n">
         <f aca="false">B730+1</f>
@@ -18051,10 +18048,10 @@
         <v>75</v>
       </c>
       <c r="E731" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F731" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F731" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G731" s="0" t="s">
         <v>12</v>
@@ -18062,7 +18059,7 @@
     </row>
     <row r="732" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B732" s="0" t="n">
         <f aca="false">B731+1</f>
@@ -18075,10 +18072,10 @@
         <v>76</v>
       </c>
       <c r="E732" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F732" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G732" s="0" t="s">
         <v>12</v>
@@ -18086,7 +18083,7 @@
     </row>
     <row r="733" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B733" s="0" t="n">
         <v>2000206</v>
@@ -18098,10 +18095,10 @@
         <v>76</v>
       </c>
       <c r="E733" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F733" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G733" s="0" t="s">
         <v>12</v>
@@ -18109,7 +18106,7 @@
     </row>
     <row r="734" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B734" s="0" t="n">
         <v>2000209</v>
@@ -18121,10 +18118,10 @@
         <v>77</v>
       </c>
       <c r="E734" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F734" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G734" s="0" t="s">
         <v>12</v>
@@ -18132,7 +18129,7 @@
     </row>
     <row r="735" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B735" s="0" t="n">
         <v>2000212</v>
@@ -18144,10 +18141,10 @@
         <v>77</v>
       </c>
       <c r="E735" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F735" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G735" s="0" t="s">
         <v>12</v>
@@ -18155,7 +18152,7 @@
     </row>
     <row r="736" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B736" s="0" t="n">
         <v>2000215</v>
@@ -18167,10 +18164,10 @@
         <v>80</v>
       </c>
       <c r="E736" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F736" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F736" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G736" s="0" t="s">
         <v>12</v>
@@ -18178,7 +18175,7 @@
     </row>
     <row r="737" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B737" s="0" t="n">
         <v>2000218</v>
@@ -18190,10 +18187,10 @@
         <v>80</v>
       </c>
       <c r="E737" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F737" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F737" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G737" s="0" t="s">
         <v>12</v>
@@ -18201,7 +18198,7 @@
     </row>
     <row r="738" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B738" s="0" t="n">
         <v>2000221</v>
@@ -18213,10 +18210,10 @@
         <v>81</v>
       </c>
       <c r="E738" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F738" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G738" s="0" t="s">
         <v>12</v>
@@ -18224,7 +18221,7 @@
     </row>
     <row r="739" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B739" s="0" t="n">
         <v>2000224</v>
@@ -18236,10 +18233,10 @@
         <v>81</v>
       </c>
       <c r="E739" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F739" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G739" s="0" t="s">
         <v>12</v>
@@ -18247,7 +18244,7 @@
     </row>
     <row r="740" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B740" s="0" t="n">
         <v>2000227</v>
@@ -18259,10 +18256,10 @@
         <v>82</v>
       </c>
       <c r="E740" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F740" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F740" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G740" s="0" t="s">
         <v>12</v>
@@ -18270,7 +18267,7 @@
     </row>
     <row r="741" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B741" s="0" t="n">
         <v>2000230</v>
@@ -18282,10 +18279,10 @@
         <v>82</v>
       </c>
       <c r="E741" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F741" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F741" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G741" s="0" t="s">
         <v>12</v>
@@ -18293,7 +18290,7 @@
     </row>
     <row r="742" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B742" s="0" t="n">
         <v>2000233</v>
@@ -18305,10 +18302,10 @@
         <v>83</v>
       </c>
       <c r="E742" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F742" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G742" s="0" t="s">
         <v>12</v>
@@ -18316,7 +18313,7 @@
     </row>
     <row r="743" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B743" s="0" t="n">
         <v>2000236</v>
@@ -18328,10 +18325,10 @@
         <v>83</v>
       </c>
       <c r="E743" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F743" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G743" s="0" t="s">
         <v>12</v>
@@ -18339,7 +18336,7 @@
     </row>
     <row r="744" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B744" s="0" t="n">
         <v>2000239</v>
@@ -18351,10 +18348,10 @@
         <v>84</v>
       </c>
       <c r="E744" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F744" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F744" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G744" s="0" t="s">
         <v>12</v>
@@ -18362,7 +18359,7 @@
     </row>
     <row r="745" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B745" s="0" t="n">
         <v>2000242</v>
@@ -18374,10 +18371,10 @@
         <v>84</v>
       </c>
       <c r="E745" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F745" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F745" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G745" s="0" t="s">
         <v>12</v>
@@ -18385,7 +18382,7 @@
     </row>
     <row r="746" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B746" s="0" t="n">
         <v>2000245</v>
@@ -18397,10 +18394,10 @@
         <v>85</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F746" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G746" s="0" t="s">
         <v>12</v>
@@ -18408,7 +18405,7 @@
     </row>
     <row r="747" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B747" s="0" t="n">
         <v>2000248</v>
@@ -18420,10 +18417,10 @@
         <v>85</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F747" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G747" s="0" t="s">
         <v>12</v>
@@ -18431,7 +18428,7 @@
     </row>
     <row r="748" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B748" s="0" t="n">
         <v>2000251</v>
@@ -18443,10 +18440,10 @@
         <v>86</v>
       </c>
       <c r="E748" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F748" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G748" s="0" t="s">
         <v>12</v>
@@ -18454,7 +18451,7 @@
     </row>
     <row r="749" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B749" s="0" t="n">
         <v>2000254</v>
@@ -18466,10 +18463,10 @@
         <v>86</v>
       </c>
       <c r="E749" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F749" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G749" s="0" t="s">
         <v>12</v>
@@ -18477,7 +18474,7 @@
     </row>
     <row r="750" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B750" s="0" t="n">
         <v>2000257</v>
@@ -18489,10 +18486,10 @@
         <v>90</v>
       </c>
       <c r="E750" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F750" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F750" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G750" s="0" t="s">
         <v>12</v>
@@ -18500,7 +18497,7 @@
     </row>
     <row r="751" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B751" s="0" t="n">
         <v>2000260</v>
@@ -18512,10 +18509,10 @@
         <v>90</v>
       </c>
       <c r="E751" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F751" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F751" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G751" s="0" t="s">
         <v>12</v>
@@ -18523,7 +18520,7 @@
     </row>
     <row r="752" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B752" s="0" t="n">
         <v>2000263</v>
@@ -18535,10 +18532,10 @@
         <v>91</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F752" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G752" s="0" t="s">
         <v>12</v>
@@ -18546,7 +18543,7 @@
     </row>
     <row r="753" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B753" s="0" t="n">
         <v>2000266</v>
@@ -18558,10 +18555,10 @@
         <v>91</v>
       </c>
       <c r="E753" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F753" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G753" s="0" t="s">
         <v>12</v>
@@ -18569,7 +18566,7 @@
     </row>
     <row r="754" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B754" s="0" t="n">
         <v>2000269</v>
@@ -18581,10 +18578,10 @@
         <v>92</v>
       </c>
       <c r="E754" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F754" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F754" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G754" s="0" t="s">
         <v>12</v>
@@ -18592,7 +18589,7 @@
     </row>
     <row r="755" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B755" s="0" t="n">
         <v>2000272</v>
@@ -18604,10 +18601,10 @@
         <v>92</v>
       </c>
       <c r="E755" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F755" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F755" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G755" s="0" t="s">
         <v>12</v>
@@ -18615,7 +18612,7 @@
     </row>
     <row r="756" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B756" s="0" t="n">
         <v>2000275</v>
@@ -18627,10 +18624,10 @@
         <v>93</v>
       </c>
       <c r="E756" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F756" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G756" s="0" t="s">
         <v>12</v>
@@ -18638,7 +18635,7 @@
     </row>
     <row r="757" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B757" s="0" t="n">
         <v>2000278</v>
@@ -18650,10 +18647,10 @@
         <v>93</v>
       </c>
       <c r="E757" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F757" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G757" s="0" t="s">
         <v>12</v>
@@ -18661,7 +18658,7 @@
     </row>
     <row r="758" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B758" s="0" t="n">
         <v>2000281</v>
@@ -18673,10 +18670,10 @@
         <v>94</v>
       </c>
       <c r="E758" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F758" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G758" s="0" t="s">
         <v>12</v>
@@ -18684,7 +18681,7 @@
     </row>
     <row r="759" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B759" s="0" t="n">
         <v>2000284</v>
@@ -18696,10 +18693,10 @@
         <v>94</v>
       </c>
       <c r="E759" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F759" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G759" s="0" t="s">
         <v>12</v>
@@ -18707,7 +18704,7 @@
     </row>
     <row r="760" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B760" s="0" t="n">
         <v>2000287</v>
@@ -18719,10 +18716,10 @@
         <v>98</v>
       </c>
       <c r="E760" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F760" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G760" s="0" t="s">
         <v>12</v>
@@ -18730,7 +18727,7 @@
     </row>
     <row r="761" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B761" s="0" t="n">
         <v>2000290</v>
@@ -18742,10 +18739,10 @@
         <v>98</v>
       </c>
       <c r="E761" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F761" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G761" s="0" t="s">
         <v>12</v>
@@ -18753,7 +18750,7 @@
     </row>
     <row r="762" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B762" s="0" t="n">
         <v>2000293</v>
@@ -18765,10 +18762,10 @@
         <v>102</v>
       </c>
       <c r="E762" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F762" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F762" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G762" s="0" t="s">
         <v>12</v>
@@ -18776,7 +18773,7 @@
     </row>
     <row r="763" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B763" s="0" t="n">
         <v>2000296</v>
@@ -18788,10 +18785,10 @@
         <v>102</v>
       </c>
       <c r="E763" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F763" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F763" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G763" s="0" t="s">
         <v>12</v>
@@ -18799,7 +18796,7 @@
     </row>
     <row r="764" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B764" s="0" t="n">
         <v>2000299</v>
@@ -18811,10 +18808,10 @@
         <v>103</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F764" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G764" s="0" t="s">
         <v>12</v>
@@ -18822,7 +18819,7 @@
     </row>
     <row r="765" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B765" s="0" t="n">
         <v>2000302</v>
@@ -18834,10 +18831,10 @@
         <v>103</v>
       </c>
       <c r="E765" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F765" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G765" s="0" t="s">
         <v>12</v>
@@ -18845,7 +18842,7 @@
     </row>
     <row r="766" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B766" s="0" t="n">
         <v>2000305</v>
@@ -18857,10 +18854,10 @@
         <v>104</v>
       </c>
       <c r="E766" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F766" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G766" s="0" t="s">
         <v>12</v>
@@ -18868,7 +18865,7 @@
     </row>
     <row r="767" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B767" s="0" t="n">
         <v>2000308</v>
@@ -18880,10 +18877,10 @@
         <v>104</v>
       </c>
       <c r="E767" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F767" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G767" s="0" t="s">
         <v>12</v>
@@ -18891,7 +18888,7 @@
     </row>
     <row r="768" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B768" s="0" t="n">
         <v>2000311</v>
@@ -18903,10 +18900,10 @@
         <v>108</v>
       </c>
       <c r="E768" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F768" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G768" s="0" t="s">
         <v>12</v>
@@ -18914,7 +18911,7 @@
     </row>
     <row r="769" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B769" s="0" t="n">
         <v>2000314</v>
@@ -18926,10 +18923,10 @@
         <v>112</v>
       </c>
       <c r="E769" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F769" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F769" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G769" s="0" t="s">
         <v>12</v>
@@ -18937,7 +18934,7 @@
     </row>
     <row r="770" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B770" s="0" t="n">
         <v>2000317</v>
@@ -18949,10 +18946,10 @@
         <v>112</v>
       </c>
       <c r="E770" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F770" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F770" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G770" s="0" t="s">
         <v>12</v>
@@ -18960,7 +18957,7 @@
     </row>
     <row r="771" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B771" s="0" t="n">
         <v>2000320</v>
@@ -18972,10 +18969,10 @@
         <v>113</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F771" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G771" s="0" t="s">
         <v>12</v>
@@ -18983,7 +18980,7 @@
     </row>
     <row r="772" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B772" s="0" t="n">
         <v>2000323</v>
@@ -18995,10 +18992,10 @@
         <v>113</v>
       </c>
       <c r="E772" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F772" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G772" s="0" t="s">
         <v>12</v>
@@ -19006,7 +19003,7 @@
     </row>
     <row r="773" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B773" s="0" t="n">
         <v>2000326</v>
@@ -19018,10 +19015,10 @@
         <v>114</v>
       </c>
       <c r="E773" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F773" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F773" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G773" s="0" t="s">
         <v>12</v>
@@ -19029,7 +19026,7 @@
     </row>
     <row r="774" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B774" s="0" t="n">
         <v>2000329</v>
@@ -19041,10 +19038,10 @@
         <v>114</v>
       </c>
       <c r="E774" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F774" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F774" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G774" s="0" t="s">
         <v>12</v>
@@ -19052,7 +19049,7 @@
     </row>
     <row r="775" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B775" s="0" t="n">
         <v>2000332</v>
@@ -19064,10 +19061,10 @@
         <v>115</v>
       </c>
       <c r="E775" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F775" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F775" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G775" s="0" t="s">
         <v>12</v>
@@ -19075,7 +19072,7 @@
     </row>
     <row r="776" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B776" s="0" t="n">
         <v>2000335</v>
@@ -19087,10 +19084,10 @@
         <v>115</v>
       </c>
       <c r="E776" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F776" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F776" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G776" s="0" t="s">
         <v>12</v>
@@ -19098,7 +19095,7 @@
     </row>
     <row r="777" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B777" s="0" t="n">
         <v>2000338</v>
@@ -19110,10 +19107,10 @@
         <v>116</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F777" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G777" s="0" t="s">
         <v>12</v>
@@ -19121,7 +19118,7 @@
     </row>
     <row r="778" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B778" s="0" t="n">
         <v>2000341</v>
@@ -19133,10 +19130,10 @@
         <v>116</v>
       </c>
       <c r="E778" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F778" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G778" s="0" t="s">
         <v>12</v>
@@ -19144,7 +19141,7 @@
     </row>
     <row r="779" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B779" s="0" t="n">
         <v>2000344</v>
@@ -19156,10 +19153,10 @@
         <v>117</v>
       </c>
       <c r="E779" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F779" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G779" s="0" t="s">
         <v>12</v>
@@ -19167,7 +19164,7 @@
     </row>
     <row r="780" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B780" s="0" t="n">
         <v>2000347</v>
@@ -19179,10 +19176,10 @@
         <v>117</v>
       </c>
       <c r="E780" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F780" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G780" s="0" t="s">
         <v>12</v>
@@ -19190,7 +19187,7 @@
     </row>
     <row r="781" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B781" s="0" t="n">
         <v>2000350</v>
@@ -19202,10 +19199,10 @@
         <v>121</v>
       </c>
       <c r="E781" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F781" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="F781" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="G781" s="0" t="s">
         <v>12</v>
@@ -19213,7 +19210,7 @@
     </row>
     <row r="782" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B782" s="0" t="n">
         <v>2000353</v>
@@ -19225,10 +19222,10 @@
         <v>121</v>
       </c>
       <c r="E782" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F782" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="F782" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="G782" s="0" t="s">
         <v>12</v>
@@ -19236,7 +19233,7 @@
     </row>
     <row r="783" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B783" s="0" t="n">
         <v>2000356</v>
@@ -19248,10 +19245,10 @@
         <v>122</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F783" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G783" s="0" t="s">
         <v>12</v>
@@ -19259,7 +19256,7 @@
     </row>
     <row r="784" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B784" s="0" t="n">
         <v>2000359</v>
@@ -19271,10 +19268,10 @@
         <v>122</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F784" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G784" s="0" t="s">
         <v>12</v>
@@ -19282,7 +19279,7 @@
     </row>
     <row r="785" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B785" s="0" t="n">
         <v>2000362</v>
@@ -19294,10 +19291,10 @@
         <v>123</v>
       </c>
       <c r="E785" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F785" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="F785" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="G785" s="0" t="s">
         <v>12</v>
@@ -19305,7 +19302,7 @@
     </row>
     <row r="786" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B786" s="0" t="n">
         <v>2000365</v>
@@ -19317,10 +19314,10 @@
         <v>123</v>
       </c>
       <c r="E786" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F786" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="F786" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="G786" s="0" t="s">
         <v>12</v>
@@ -19328,7 +19325,7 @@
     </row>
     <row r="787" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B787" s="0" t="n">
         <v>2000368</v>
@@ -19340,10 +19337,10 @@
         <v>124</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F787" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G787" s="0" t="s">
         <v>12</v>
@@ -19351,7 +19348,7 @@
     </row>
     <row r="788" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B788" s="0" t="n">
         <v>2000371</v>
@@ -19363,10 +19360,10 @@
         <v>124</v>
       </c>
       <c r="E788" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F788" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G788" s="0" t="s">
         <v>12</v>
@@ -19374,7 +19371,7 @@
     </row>
     <row r="789" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B789" s="0" t="n">
         <v>2000374</v>
@@ -19386,10 +19383,10 @@
         <v>125</v>
       </c>
       <c r="E789" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F789" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="F789" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="G789" s="0" t="s">
         <v>12</v>
@@ -19397,7 +19394,7 @@
     </row>
     <row r="790" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B790" s="0" t="n">
         <v>2000377</v>
@@ -19409,10 +19406,10 @@
         <v>125</v>
       </c>
       <c r="E790" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F790" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="F790" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="G790" s="0" t="s">
         <v>12</v>
@@ -19420,7 +19417,7 @@
     </row>
     <row r="791" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B791" s="0" t="n">
         <v>2000380</v>
@@ -19432,10 +19429,10 @@
         <v>126</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F791" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G791" s="0" t="s">
         <v>12</v>
@@ -19443,7 +19440,7 @@
     </row>
     <row r="792" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B792" s="0" t="n">
         <v>2000383</v>
@@ -19455,10 +19452,10 @@
         <v>126</v>
       </c>
       <c r="E792" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F792" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G792" s="0" t="s">
         <v>12</v>
@@ -19466,7 +19463,7 @@
     </row>
     <row r="793" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B793" s="0" t="n">
         <v>2000386</v>
@@ -19478,10 +19475,10 @@
         <v>127</v>
       </c>
       <c r="E793" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F793" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="F793" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="G793" s="0" t="s">
         <v>12</v>
@@ -19489,7 +19486,7 @@
     </row>
     <row r="794" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B794" s="0" t="n">
         <v>2000389</v>
@@ -19501,10 +19498,10 @@
         <v>127</v>
       </c>
       <c r="E794" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F794" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="F794" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="G794" s="0" t="s">
         <v>12</v>
@@ -19512,7 +19509,7 @@
     </row>
     <row r="795" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B795" s="0" t="n">
         <v>2000392</v>
@@ -19524,10 +19521,10 @@
         <v>128</v>
       </c>
       <c r="E795" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F795" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G795" s="0" t="s">
         <v>12</v>
@@ -19535,7 +19532,7 @@
     </row>
     <row r="796" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B796" s="0" t="n">
         <v>2000395</v>
@@ -19547,10 +19544,10 @@
         <v>128</v>
       </c>
       <c r="E796" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F796" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G796" s="0" t="s">
         <v>12</v>
